--- a/public/template_excel/import_pemilih.xlsx
+++ b/public/template_excel/import_pemilih.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97687719e8762bd4/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FB1796-D298-4D3D-8065-7CB79B8AB859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{295C0E15-F0E7-4EB3-A421-D7058C691BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B9042580-5CB4-4CE2-94C7-9F39CC47290F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,40 +36,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>nama</t>
   </si>
   <si>
-    <t>nis</t>
-  </si>
-  <si>
-    <t>kelas</t>
+    <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">Cahyodi </t>
-  </si>
-  <si>
-    <t>XI RPL 2</t>
-  </si>
-  <si>
-    <t>Zidan Ganteng</t>
-  </si>
-  <si>
-    <t>Mafaza Alfa</t>
-  </si>
-  <si>
-    <t>XI RPL 1</t>
+    <t>Natan</t>
+  </si>
+  <si>
+    <t>natan123</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>ariel123</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>ezra123</t>
+  </si>
+  <si>
+    <t>Gio</t>
+  </si>
+  <si>
+    <t>gio123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,74 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -480,21 +421,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBEF912-8051-47CC-BC30-9395FC3323F9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,50 +444,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>5321345</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>5321345</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>64253133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>64253133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>87530323</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>87530323</v>
+      <c r="C4">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
